--- a/Timekeeping/2024/10-24/JOSEPH R 10-24.xlsx
+++ b/Timekeeping/2024/10-24/JOSEPH R 10-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\10-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523D4299-3940-4BE8-864C-180C434C2F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{523D4299-3940-4BE8-864C-180C434C2F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0E1C8AD-57BF-42AF-8DA5-B4FD0571CE7C}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
   <si>
     <t>NAME</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>Quadreal - Maplewood</t>
-  </si>
-  <si>
-    <t>DP</t>
   </si>
   <si>
     <t>October 2024</t>
@@ -1202,7 +1199,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1218,22 +1215,22 @@
   <dimension ref="A1:GH120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="7.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.46484375" style="73" customWidth="1"/>
-    <col min="2" max="2" width="30.265625" style="73" customWidth="1"/>
+    <col min="1" max="1" width="8.453125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" style="73" customWidth="1"/>
     <col min="3" max="3" width="5" style="75" customWidth="1"/>
-    <col min="4" max="34" width="3.46484375" style="74" customWidth="1"/>
-    <col min="35" max="35" width="5.59765625" style="76" customWidth="1"/>
-    <col min="36" max="36" width="51.06640625" style="74" customWidth="1"/>
-    <col min="37" max="190" width="7.53125" style="12" customWidth="1"/>
-    <col min="191" max="16384" width="7.53125" style="12"/>
+    <col min="4" max="34" width="3.453125" style="74" customWidth="1"/>
+    <col min="35" max="35" width="5.6328125" style="76" customWidth="1"/>
+    <col min="36" max="36" width="51.08984375" style="74" customWidth="1"/>
+    <col min="37" max="190" width="7.54296875" style="12" customWidth="1"/>
+    <col min="191" max="16384" width="7.54296875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1304,7 +1301,7 @@
       <c r="BP1" s="3"/>
       <c r="BQ1" s="3"/>
     </row>
-    <row r="2" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1375,7 +1372,7 @@
       <c r="BP2" s="3"/>
       <c r="BQ2" s="3"/>
     </row>
-    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1418,7 +1415,7 @@
       </c>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="77" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
@@ -1454,7 +1451,7 @@
       <c r="BP3" s="3"/>
       <c r="BQ3" s="3"/>
     </row>
-    <row r="4" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:190" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1525,7 +1522,7 @@
       <c r="BP4" s="3"/>
       <c r="BQ4" s="3"/>
     </row>
-    <row r="5" spans="1:190" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:190" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
@@ -1719,7 +1716,7 @@
       <c r="GG5" s="12"/>
       <c r="GH5" s="12"/>
     </row>
-    <row r="6" spans="1:190" s="26" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:190" s="26" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
@@ -1983,7 +1980,7 @@
       <c r="GG6" s="12"/>
       <c r="GH6" s="12"/>
     </row>
-    <row r="7" spans="1:190" ht="10.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:190" ht="10.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29" t="s">
@@ -2118,12 +2115,12 @@
       <c r="BP7" s="3"/>
       <c r="BQ7" s="3"/>
     </row>
-    <row r="8" spans="1:190" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:190" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>64</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>44</v>
@@ -2216,7 +2213,7 @@
       <c r="BP8" s="3"/>
       <c r="BQ8" s="3"/>
     </row>
-    <row r="9" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29"/>
@@ -2306,7 +2303,7 @@
       <c r="BP9" s="3"/>
       <c r="BQ9" s="3"/>
     </row>
-    <row r="10" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:190" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>40</v>
       </c>
@@ -2420,7 +2417,7 @@
       <c r="BP10" s="3"/>
       <c r="BQ10" s="3"/>
     </row>
-    <row r="11" spans="1:190" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:190" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>40</v>
       </c>
@@ -2496,7 +2493,7 @@
         <v>34.5</v>
       </c>
       <c r="AJ11" s="32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
@@ -2532,7 +2529,7 @@
       <c r="BP11" s="3"/>
       <c r="BQ11" s="3"/>
     </row>
-    <row r="12" spans="1:190" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:190" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="35"/>
@@ -2622,7 +2619,7 @@
       <c r="BP12" s="3"/>
       <c r="BQ12" s="3"/>
     </row>
-    <row r="13" spans="1:190" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:190" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="40" t="s">
         <v>56</v>
       </c>
@@ -2839,7 +2836,7 @@
       <c r="GG13" s="12"/>
       <c r="GH13" s="12"/>
     </row>
-    <row r="14" spans="1:190" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:190" s="39" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>58</v>
       </c>
@@ -2847,7 +2844,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -2935,7 +2932,7 @@
       <c r="BP14" s="3"/>
       <c r="BQ14" s="3"/>
     </row>
-    <row r="15" spans="1:190" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:190" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="28"/>
       <c r="C15" s="29"/>
@@ -3146,7 +3143,7 @@
       <c r="GG15" s="12"/>
       <c r="GH15" s="12"/>
     </row>
-    <row r="16" spans="1:190" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:190" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="35"/>
@@ -3357,7 +3354,7 @@
       <c r="GG16" s="12"/>
       <c r="GH16" s="12"/>
     </row>
-    <row r="17" spans="1:190" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:190" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
@@ -3568,7 +3565,7 @@
       <c r="GG17" s="39"/>
       <c r="GH17" s="39"/>
     </row>
-    <row r="18" spans="1:190" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:190" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="45"/>
       <c r="C18" s="46"/>
@@ -3779,7 +3776,7 @@
       <c r="GG18" s="12"/>
       <c r="GH18" s="12"/>
     </row>
-    <row r="19" spans="1:190" s="42" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:190" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
       <c r="B19" s="48" t="s">
         <v>6</v>
@@ -4069,7 +4066,7 @@
       <c r="GG19" s="12"/>
       <c r="GH19" s="12"/>
     </row>
-    <row r="20" spans="1:190" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:190" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
         <v>7</v>
       </c>
@@ -4269,7 +4266,7 @@
       <c r="GG20" s="39"/>
       <c r="GH20" s="39"/>
     </row>
-    <row r="21" spans="1:190" s="43" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:190" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>14</v>
       </c>
@@ -4466,7 +4463,7 @@
       <c r="GG21" s="39"/>
       <c r="GH21" s="39"/>
     </row>
-    <row r="22" spans="1:190" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:190" s="42" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
         <v>8</v>
       </c>
@@ -4663,7 +4660,7 @@
       <c r="GG22" s="12"/>
       <c r="GH22" s="12"/>
     </row>
-    <row r="23" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
         <v>22</v>
       </c>
@@ -4739,7 +4736,7 @@
       <c r="BP23" s="3"/>
       <c r="BQ23" s="3"/>
     </row>
-    <row r="24" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>37</v>
       </c>
@@ -4814,7 +4811,7 @@
       <c r="BP24" s="3"/>
       <c r="BQ24" s="3"/>
     </row>
-    <row r="25" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
         <v>12</v>
       </c>
@@ -4890,7 +4887,7 @@
       <c r="BP25" s="3"/>
       <c r="BQ25" s="3"/>
     </row>
-    <row r="26" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>13</v>
       </c>
@@ -4986,7 +4983,7 @@
       <c r="BP26" s="3"/>
       <c r="BQ26" s="3"/>
     </row>
-    <row r="27" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A27" s="47" t="s">
         <v>38</v>
       </c>
@@ -5062,7 +5059,7 @@
       <c r="BP27" s="3"/>
       <c r="BQ27" s="3"/>
     </row>
-    <row r="28" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>38</v>
       </c>
@@ -5138,7 +5135,7 @@
       <c r="BP28" s="3"/>
       <c r="BQ28" s="3"/>
     </row>
-    <row r="29" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>9</v>
       </c>
@@ -5307,7 +5304,7 @@
       <c r="BP29" s="3"/>
       <c r="BQ29" s="3"/>
     </row>
-    <row r="30" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A30" s="83"/>
       <c r="B30" s="60"/>
       <c r="C30" s="60"/>
@@ -5378,7 +5375,7 @@
       <c r="BP30" s="3"/>
       <c r="BQ30" s="3"/>
     </row>
-    <row r="31" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A31" s="86" t="s">
         <v>54</v>
       </c>
@@ -5456,7 +5453,7 @@
       <c r="BP31" s="3"/>
       <c r="BQ31" s="3"/>
     </row>
-    <row r="32" spans="1:190" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:190" x14ac:dyDescent="0.25">
       <c r="A32" s="83"/>
       <c r="B32" s="60"/>
       <c r="C32" s="60"/>
@@ -5527,7 +5524,7 @@
       <c r="BP32" s="3"/>
       <c r="BQ32" s="3"/>
     </row>
-    <row r="33" spans="1:52" s="3" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:52" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="59" t="s">
         <v>10</v>
       </c>
@@ -5568,7 +5565,7 @@
       <c r="AJ33" s="63"/>
       <c r="AZ33" s="4"/>
     </row>
-    <row r="34" spans="1:52" s="3" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:52" s="3" customFormat="1" ht="10.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="64" t="s">
         <v>44</v>
       </c>
@@ -5622,7 +5619,7 @@
       <c r="AJ34" s="63"/>
       <c r="AZ34" s="4"/>
     </row>
-    <row r="35" spans="1:52" s="3" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:52" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A35" s="64" t="s">
         <v>24</v>
       </c>
@@ -5668,7 +5665,7 @@
       <c r="AJ35" s="63"/>
       <c r="AZ35" s="4"/>
     </row>
-    <row r="36" spans="1:52" s="3" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:52" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A36" s="64" t="s">
         <v>47</v>
       </c>
@@ -5721,7 +5718,7 @@
       </c>
       <c r="AZ36" s="4"/>
     </row>
-    <row r="37" spans="1:52" s="3" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:52" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A37" s="61" t="s">
         <v>23</v>
       </c>
@@ -5766,7 +5763,7 @@
       <c r="AI37" s="62"/>
       <c r="AJ37" s="63"/>
     </row>
-    <row r="38" spans="1:52" s="3" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:52" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
         <v>27</v>
       </c>
@@ -5816,7 +5813,7 @@
       </c>
       <c r="AJ38" s="63"/>
     </row>
-    <row r="39" spans="1:52" s="3" customFormat="1" ht="10.15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:52" s="3" customFormat="1" ht="10" x14ac:dyDescent="0.2">
       <c r="A39" s="63"/>
       <c r="B39" s="63"/>
       <c r="C39" s="63"/>
@@ -5853,7 +5850,7 @@
       <c r="AI39" s="68"/>
       <c r="AJ39" s="63"/>
     </row>
-    <row r="40" spans="1:52" s="3" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:52" s="3" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="71"/>
       <c r="B40" s="71"/>
       <c r="C40" s="71"/>
@@ -5895,7 +5892,7 @@
       </c>
       <c r="AJ40" s="63"/>
     </row>
-    <row r="41" spans="1:52" s="3" customFormat="1" ht="13.15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:52" s="3" customFormat="1" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="71"/>
       <c r="B41" s="71"/>
       <c r="C41" s="71"/>
@@ -5933,7 +5930,7 @@
       <c r="AI41" s="63"/>
       <c r="AJ41" s="63"/>
     </row>
-    <row r="42" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="71"/>
       <c r="B42" s="71"/>
       <c r="C42" s="71"/>
@@ -5971,7 +5968,7 @@
       <c r="AI42" s="63"/>
       <c r="AJ42" s="63"/>
     </row>
-    <row r="43" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="71"/>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
@@ -6009,7 +6006,7 @@
       <c r="AI43" s="63"/>
       <c r="AJ43" s="63"/>
     </row>
-    <row r="44" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:52" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="71"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
@@ -6047,167 +6044,167 @@
       <c r="AI44" s="63"/>
       <c r="AJ44" s="63"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C45" s="73"/>
       <c r="AI45" s="74"/>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C46" s="73"/>
       <c r="AI46" s="74"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C47" s="73"/>
       <c r="AI47" s="74"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C48" s="73"/>
       <c r="AI48" s="74"/>
     </row>
-    <row r="49" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C49" s="73"/>
       <c r="AI49" s="74"/>
     </row>
-    <row r="50" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C50" s="73"/>
       <c r="AI50" s="74"/>
     </row>
-    <row r="51" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C51" s="73"/>
       <c r="AI51" s="74"/>
     </row>
-    <row r="52" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C52" s="73"/>
       <c r="AI52" s="74"/>
     </row>
-    <row r="53" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C53" s="73"/>
       <c r="AI53" s="74"/>
     </row>
-    <row r="54" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C54" s="73"/>
       <c r="AI54" s="74"/>
     </row>
-    <row r="55" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C55" s="73"/>
       <c r="AI55" s="74"/>
     </row>
-    <row r="56" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C56" s="73"/>
       <c r="AI56" s="74"/>
     </row>
-    <row r="57" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C57" s="73"/>
       <c r="AI57" s="74"/>
     </row>
-    <row r="58" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C58" s="73"/>
       <c r="AI58" s="74"/>
     </row>
-    <row r="59" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C59" s="73"/>
       <c r="AI59" s="74"/>
     </row>
-    <row r="60" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C60" s="73"/>
       <c r="AI60" s="74"/>
     </row>
-    <row r="61" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C61" s="73"/>
       <c r="AI61" s="74"/>
     </row>
-    <row r="62" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C62" s="73"/>
       <c r="AI62" s="74"/>
     </row>
-    <row r="63" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C63" s="73"/>
       <c r="AI63" s="74"/>
     </row>
-    <row r="64" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C64" s="73"/>
       <c r="AI64" s="74"/>
     </row>
-    <row r="65" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C65" s="73"/>
       <c r="AI65" s="74"/>
     </row>
-    <row r="66" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C66" s="73"/>
       <c r="AI66" s="74"/>
     </row>
-    <row r="67" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C67" s="73"/>
       <c r="AI67" s="74"/>
     </row>
-    <row r="68" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C68" s="73"/>
       <c r="AI68" s="74"/>
     </row>
-    <row r="69" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C69" s="73"/>
       <c r="AI69" s="74"/>
     </row>
-    <row r="70" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C70" s="73"/>
       <c r="AI70" s="74"/>
     </row>
-    <row r="71" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C71" s="73"/>
       <c r="AI71" s="74"/>
     </row>
-    <row r="72" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C72" s="73"/>
       <c r="AI72" s="74"/>
     </row>
-    <row r="73" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C73" s="73"/>
       <c r="AI73" s="74"/>
     </row>
-    <row r="74" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C74" s="73"/>
       <c r="AI74" s="74"/>
     </row>
-    <row r="75" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C75" s="73"/>
       <c r="AI75" s="74"/>
     </row>
-    <row r="76" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C76" s="73"/>
       <c r="AI76" s="74"/>
     </row>
-    <row r="77" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C77" s="73"/>
       <c r="AI77" s="74"/>
     </row>
-    <row r="78" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C78" s="73"/>
       <c r="AI78" s="74"/>
     </row>
-    <row r="79" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C79" s="73"/>
       <c r="AI79" s="74"/>
     </row>
-    <row r="80" spans="3:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C80" s="73"/>
       <c r="AI80" s="74"/>
     </row>
-    <row r="81" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C81" s="73"/>
       <c r="AI81" s="74"/>
     </row>
-    <row r="82" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C82" s="73"/>
       <c r="AI82" s="74"/>
     </row>
-    <row r="83" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C83" s="73"/>
       <c r="AI83" s="74"/>
     </row>
-    <row r="84" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C84" s="73"/>
       <c r="AI84" s="74"/>
     </row>
-    <row r="85" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C85" s="73"/>
       <c r="D85" s="73"/>
       <c r="E85" s="73"/>
@@ -6243,7 +6240,7 @@
       <c r="AI85" s="73"/>
       <c r="AJ85" s="73"/>
     </row>
-    <row r="86" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C86" s="73"/>
       <c r="D86" s="73"/>
       <c r="E86" s="73"/>
@@ -6279,7 +6276,7 @@
       <c r="AI86" s="73"/>
       <c r="AJ86" s="73"/>
     </row>
-    <row r="87" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="87" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C87" s="73"/>
       <c r="D87" s="73"/>
       <c r="E87" s="73"/>
@@ -6315,7 +6312,7 @@
       <c r="AI87" s="73"/>
       <c r="AJ87" s="73"/>
     </row>
-    <row r="88" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="88" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
       <c r="E88" s="73"/>
@@ -6351,7 +6348,7 @@
       <c r="AI88" s="73"/>
       <c r="AJ88" s="73"/>
     </row>
-    <row r="89" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="89" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C89" s="73"/>
       <c r="D89" s="73"/>
       <c r="E89" s="73"/>
@@ -6387,7 +6384,7 @@
       <c r="AI89" s="73"/>
       <c r="AJ89" s="73"/>
     </row>
-    <row r="90" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="90" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C90" s="73"/>
       <c r="D90" s="73"/>
       <c r="E90" s="73"/>
@@ -6423,7 +6420,7 @@
       <c r="AI90" s="73"/>
       <c r="AJ90" s="73"/>
     </row>
-    <row r="91" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="91" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C91" s="73"/>
       <c r="D91" s="73"/>
       <c r="E91" s="73"/>
@@ -6459,7 +6456,7 @@
       <c r="AI91" s="73"/>
       <c r="AJ91" s="73"/>
     </row>
-    <row r="92" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="92" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C92" s="73"/>
       <c r="D92" s="73"/>
       <c r="E92" s="73"/>
@@ -6495,7 +6492,7 @@
       <c r="AI92" s="73"/>
       <c r="AJ92" s="73"/>
     </row>
-    <row r="93" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="93" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C93" s="73"/>
       <c r="D93" s="73"/>
       <c r="E93" s="73"/>
@@ -6531,7 +6528,7 @@
       <c r="AI93" s="73"/>
       <c r="AJ93" s="73"/>
     </row>
-    <row r="94" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="94" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C94" s="73"/>
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
@@ -6567,7 +6564,7 @@
       <c r="AI94" s="73"/>
       <c r="AJ94" s="73"/>
     </row>
-    <row r="95" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="95" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C95" s="73"/>
       <c r="D95" s="73"/>
       <c r="E95" s="73"/>
@@ -6603,7 +6600,7 @@
       <c r="AI95" s="73"/>
       <c r="AJ95" s="73"/>
     </row>
-    <row r="96" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="96" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C96" s="73"/>
       <c r="D96" s="73"/>
       <c r="E96" s="73"/>
@@ -6639,7 +6636,7 @@
       <c r="AI96" s="73"/>
       <c r="AJ96" s="73"/>
     </row>
-    <row r="97" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="97" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C97" s="73"/>
       <c r="D97" s="73"/>
       <c r="E97" s="73"/>
@@ -6675,7 +6672,7 @@
       <c r="AI97" s="73"/>
       <c r="AJ97" s="73"/>
     </row>
-    <row r="98" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="98" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C98" s="73"/>
       <c r="D98" s="73"/>
       <c r="E98" s="73"/>
@@ -6711,7 +6708,7 @@
       <c r="AI98" s="73"/>
       <c r="AJ98" s="73"/>
     </row>
-    <row r="99" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="99" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C99" s="73"/>
       <c r="D99" s="73"/>
       <c r="E99" s="73"/>
@@ -6747,7 +6744,7 @@
       <c r="AI99" s="73"/>
       <c r="AJ99" s="73"/>
     </row>
-    <row r="100" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="100" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C100" s="73"/>
       <c r="D100" s="73"/>
       <c r="E100" s="73"/>
@@ -6783,7 +6780,7 @@
       <c r="AI100" s="73"/>
       <c r="AJ100" s="73"/>
     </row>
-    <row r="101" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="101" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C101" s="73"/>
       <c r="D101" s="73"/>
       <c r="E101" s="73"/>
@@ -6819,7 +6816,7 @@
       <c r="AI101" s="73"/>
       <c r="AJ101" s="73"/>
     </row>
-    <row r="102" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="102" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C102" s="73"/>
       <c r="D102" s="73"/>
       <c r="E102" s="73"/>
@@ -6855,7 +6852,7 @@
       <c r="AI102" s="73"/>
       <c r="AJ102" s="73"/>
     </row>
-    <row r="103" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="103" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C103" s="73"/>
       <c r="D103" s="73"/>
       <c r="E103" s="73"/>
@@ -6891,7 +6888,7 @@
       <c r="AI103" s="73"/>
       <c r="AJ103" s="73"/>
     </row>
-    <row r="104" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="104" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C104" s="73"/>
       <c r="D104" s="73"/>
       <c r="E104" s="73"/>
@@ -6927,7 +6924,7 @@
       <c r="AI104" s="73"/>
       <c r="AJ104" s="73"/>
     </row>
-    <row r="105" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="105" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C105" s="73"/>
       <c r="D105" s="73"/>
       <c r="E105" s="73"/>
@@ -6963,7 +6960,7 @@
       <c r="AI105" s="73"/>
       <c r="AJ105" s="73"/>
     </row>
-    <row r="106" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="106" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C106" s="73"/>
       <c r="D106" s="73"/>
       <c r="E106" s="73"/>
@@ -6999,7 +6996,7 @@
       <c r="AI106" s="73"/>
       <c r="AJ106" s="73"/>
     </row>
-    <row r="107" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="107" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C107" s="73"/>
       <c r="D107" s="73"/>
       <c r="E107" s="73"/>
@@ -7035,7 +7032,7 @@
       <c r="AI107" s="73"/>
       <c r="AJ107" s="73"/>
     </row>
-    <row r="108" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="108" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C108" s="73"/>
       <c r="D108" s="73"/>
       <c r="E108" s="73"/>
@@ -7071,7 +7068,7 @@
       <c r="AI108" s="73"/>
       <c r="AJ108" s="73"/>
     </row>
-    <row r="109" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="109" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C109" s="73"/>
       <c r="D109" s="73"/>
       <c r="E109" s="73"/>
@@ -7107,7 +7104,7 @@
       <c r="AI109" s="73"/>
       <c r="AJ109" s="73"/>
     </row>
-    <row r="110" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="110" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C110" s="73"/>
       <c r="D110" s="73"/>
       <c r="E110" s="73"/>
@@ -7143,7 +7140,7 @@
       <c r="AI110" s="73"/>
       <c r="AJ110" s="73"/>
     </row>
-    <row r="111" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="111" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C111" s="73"/>
       <c r="D111" s="73"/>
       <c r="E111" s="73"/>
@@ -7179,7 +7176,7 @@
       <c r="AI111" s="73"/>
       <c r="AJ111" s="73"/>
     </row>
-    <row r="112" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="112" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C112" s="73"/>
       <c r="D112" s="73"/>
       <c r="E112" s="73"/>
@@ -7215,7 +7212,7 @@
       <c r="AI112" s="73"/>
       <c r="AJ112" s="73"/>
     </row>
-    <row r="113" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="113" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C113" s="73"/>
       <c r="D113" s="73"/>
       <c r="E113" s="73"/>
@@ -7251,7 +7248,7 @@
       <c r="AI113" s="73"/>
       <c r="AJ113" s="73"/>
     </row>
-    <row r="114" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="114" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C114" s="73"/>
       <c r="D114" s="73"/>
       <c r="E114" s="73"/>
@@ -7287,7 +7284,7 @@
       <c r="AI114" s="73"/>
       <c r="AJ114" s="73"/>
     </row>
-    <row r="115" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="115" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C115" s="73"/>
       <c r="D115" s="73"/>
       <c r="E115" s="73"/>
@@ -7323,7 +7320,7 @@
       <c r="AI115" s="73"/>
       <c r="AJ115" s="73"/>
     </row>
-    <row r="116" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="116" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C116" s="73"/>
       <c r="D116" s="73"/>
       <c r="E116" s="73"/>
@@ -7359,7 +7356,7 @@
       <c r="AI116" s="73"/>
       <c r="AJ116" s="73"/>
     </row>
-    <row r="117" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="117" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C117" s="73"/>
       <c r="D117" s="73"/>
       <c r="E117" s="73"/>
@@ -7395,7 +7392,7 @@
       <c r="AI117" s="73"/>
       <c r="AJ117" s="73"/>
     </row>
-    <row r="118" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="118" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C118" s="73"/>
       <c r="D118" s="73"/>
       <c r="E118" s="73"/>
@@ -7431,7 +7428,7 @@
       <c r="AI118" s="73"/>
       <c r="AJ118" s="73"/>
     </row>
-    <row r="119" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="119" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C119" s="73"/>
       <c r="D119" s="73"/>
       <c r="E119" s="73"/>
@@ -7467,7 +7464,7 @@
       <c r="AI119" s="73"/>
       <c r="AJ119" s="73"/>
     </row>
-    <row r="120" spans="3:36" x14ac:dyDescent="0.35">
+    <row r="120" spans="3:36" x14ac:dyDescent="0.25">
       <c r="C120" s="73"/>
       <c r="D120" s="73"/>
       <c r="E120" s="73"/>
